--- a/data/pca/factorExposure/factorExposure_2017-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02370292929751429</v>
+        <v>0.01048769383309004</v>
       </c>
       <c r="C2">
-        <v>-0.002909139411110337</v>
+        <v>-0.04042136221970077</v>
       </c>
       <c r="D2">
-        <v>0.01514802564393688</v>
+        <v>-0.02914786224144112</v>
       </c>
       <c r="E2">
-        <v>-0.01367617772800567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02537877624295727</v>
+      </c>
+      <c r="F2">
+        <v>0.0250294716329877</v>
+      </c>
+      <c r="G2">
+        <v>0.02731545201639272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01292067683012036</v>
+        <v>0.0485053770561243</v>
       </c>
       <c r="C3">
-        <v>-0.04712705056594023</v>
+        <v>-0.07762004610832328</v>
       </c>
       <c r="D3">
-        <v>0.01492870417540997</v>
+        <v>-0.0153132870260955</v>
       </c>
       <c r="E3">
-        <v>-0.01093283133837989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08536504812207134</v>
+      </c>
+      <c r="F3">
+        <v>0.07331848333045654</v>
+      </c>
+      <c r="G3">
+        <v>0.07195021611840285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02186872554767092</v>
+        <v>0.05714464495539066</v>
       </c>
       <c r="C4">
-        <v>-0.01654560436677603</v>
+        <v>-0.06221392085285712</v>
       </c>
       <c r="D4">
-        <v>0.06433069714360533</v>
+        <v>-0.022577140660288</v>
       </c>
       <c r="E4">
-        <v>0.01163774200714934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009808386828352061</v>
+      </c>
+      <c r="F4">
+        <v>0.006857502093904787</v>
+      </c>
+      <c r="G4">
+        <v>0.04932916027945519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01509124671426889</v>
+        <v>0.03220432803463286</v>
       </c>
       <c r="C6">
-        <v>-0.02115904600880845</v>
+        <v>-0.05317196764878024</v>
       </c>
       <c r="D6">
-        <v>0.08449819712436291</v>
+        <v>-0.01606759527732098</v>
       </c>
       <c r="E6">
-        <v>-0.002552582242365157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01021956418893002</v>
+      </c>
+      <c r="F6">
+        <v>0.00820944674779662</v>
+      </c>
+      <c r="G6">
+        <v>0.02960267576714098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01023967592872489</v>
+        <v>0.01855024336428295</v>
       </c>
       <c r="C7">
-        <v>-0.003828671775494054</v>
+        <v>-0.03749003599838975</v>
       </c>
       <c r="D7">
-        <v>0.04075641893505048</v>
+        <v>-0.01302921809893412</v>
       </c>
       <c r="E7">
-        <v>0.06769113666045952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01222974718430105</v>
+      </c>
+      <c r="F7">
+        <v>0.003114377456735756</v>
+      </c>
+      <c r="G7">
+        <v>0.08109792413308189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.167721695939134e-05</v>
+        <v>-0.002626163740872796</v>
       </c>
       <c r="C8">
-        <v>0.009167461414864629</v>
+        <v>-0.01877883119292235</v>
       </c>
       <c r="D8">
-        <v>0.01410819552143406</v>
+        <v>-0.004026746967380133</v>
       </c>
       <c r="E8">
-        <v>0.005603146407696476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02181448789050221</v>
+      </c>
+      <c r="F8">
+        <v>0.02300888657997999</v>
+      </c>
+      <c r="G8">
+        <v>0.02399898938817729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01452621456736104</v>
+        <v>0.02895268855623302</v>
       </c>
       <c r="C9">
-        <v>-0.01678207315387052</v>
+        <v>-0.04309493146237026</v>
       </c>
       <c r="D9">
-        <v>0.04600782472778324</v>
+        <v>-0.01600812290879289</v>
       </c>
       <c r="E9">
-        <v>0.002030385275211459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0104277435324457</v>
+      </c>
+      <c r="F9">
+        <v>0.01493885075060403</v>
+      </c>
+      <c r="G9">
+        <v>0.04052254547977969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0100135679104681</v>
+        <v>0.09386562242437843</v>
       </c>
       <c r="C10">
-        <v>-0.1522288995892887</v>
+        <v>0.1830486674421953</v>
       </c>
       <c r="D10">
-        <v>-0.1298307448222896</v>
+        <v>0.01839471877274184</v>
       </c>
       <c r="E10">
-        <v>0.02182100984776192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01534550090476064</v>
+      </c>
+      <c r="F10">
+        <v>-0.01249716140361069</v>
+      </c>
+      <c r="G10">
+        <v>0.0404526191805399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002429383510272184</v>
+        <v>0.03330160633846346</v>
       </c>
       <c r="C11">
-        <v>-0.006019078520296893</v>
+        <v>-0.05393372731186457</v>
       </c>
       <c r="D11">
-        <v>0.04478001783997618</v>
+        <v>-0.001880825612206304</v>
       </c>
       <c r="E11">
-        <v>-0.01321364674523078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001162464448201233</v>
+      </c>
+      <c r="F11">
+        <v>0.01864846327556479</v>
+      </c>
+      <c r="G11">
+        <v>0.02221105093993418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005439014481243777</v>
+        <v>0.03165120362681068</v>
       </c>
       <c r="C12">
-        <v>-0.01378002622398424</v>
+        <v>-0.04536789426484832</v>
       </c>
       <c r="D12">
-        <v>0.04760345597623376</v>
+        <v>-0.005892132638441048</v>
       </c>
       <c r="E12">
-        <v>-0.004149857847552192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004743848874109059</v>
+      </c>
+      <c r="F12">
+        <v>0.004037685639848414</v>
+      </c>
+      <c r="G12">
+        <v>0.02672836685966731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0212219641836334</v>
+        <v>0.01374215590020015</v>
       </c>
       <c r="C13">
-        <v>-0.01529456249936261</v>
+        <v>-0.03283975238604322</v>
       </c>
       <c r="D13">
-        <v>0.01116915286116694</v>
+        <v>-0.02479404625168588</v>
       </c>
       <c r="E13">
-        <v>-0.008177209310101938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01909414084394193</v>
+      </c>
+      <c r="F13">
+        <v>0.01556417612597551</v>
+      </c>
+      <c r="G13">
+        <v>0.03415875768873367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007000801394493222</v>
+        <v>0.008812917230163791</v>
       </c>
       <c r="C14">
-        <v>-0.01168978348450803</v>
+        <v>-0.02720979685870803</v>
       </c>
       <c r="D14">
-        <v>0.01808239109295414</v>
+        <v>-0.008680027634445239</v>
       </c>
       <c r="E14">
-        <v>0.009370816979872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006985102110361548</v>
+      </c>
+      <c r="F14">
+        <v>-0.0008728692957406153</v>
+      </c>
+      <c r="G14">
+        <v>0.04060081399455041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006347553991042719</v>
+        <v>0.03122116821833228</v>
       </c>
       <c r="C16">
-        <v>-0.01060922130092734</v>
+        <v>-0.04370740857032929</v>
       </c>
       <c r="D16">
-        <v>0.0513088589565391</v>
+        <v>-0.001421244559954545</v>
       </c>
       <c r="E16">
-        <v>-0.00753466126014278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004035888686854664</v>
+      </c>
+      <c r="F16">
+        <v>0.008673852470503068</v>
+      </c>
+      <c r="G16">
+        <v>0.02481944636769212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01305002139239716</v>
+        <v>0.02567744311483731</v>
       </c>
       <c r="C19">
-        <v>-0.0274355085518397</v>
+        <v>-0.05067896896440931</v>
       </c>
       <c r="D19">
-        <v>0.0286401465195037</v>
+        <v>-0.01610879376558736</v>
       </c>
       <c r="E19">
-        <v>0.002910498843504489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04957270165307707</v>
+      </c>
+      <c r="F19">
+        <v>0.03083031959061311</v>
+      </c>
+      <c r="G19">
+        <v>0.04966898538341744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01024436986349746</v>
+        <v>0.01211471317890747</v>
       </c>
       <c r="C20">
-        <v>-0.005668538842333379</v>
+        <v>-0.03492643164922306</v>
       </c>
       <c r="D20">
-        <v>0.0136613389309228</v>
+        <v>-0.01312814861930594</v>
       </c>
       <c r="E20">
-        <v>-0.001820721939852525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02151706294239476</v>
+      </c>
+      <c r="F20">
+        <v>-0.0007263779160430987</v>
+      </c>
+      <c r="G20">
+        <v>0.03903322233481728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01394251510752247</v>
+        <v>0.01592683911288283</v>
       </c>
       <c r="C21">
-        <v>-0.03747976017381</v>
+        <v>-0.03551290349554111</v>
       </c>
       <c r="D21">
-        <v>0.02102811611349639</v>
+        <v>-0.01612432966975041</v>
       </c>
       <c r="E21">
-        <v>0.01715223054843967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02896657999998865</v>
+      </c>
+      <c r="F21">
+        <v>0.01124774341237476</v>
+      </c>
+      <c r="G21">
+        <v>0.06073748999940116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004936692053821959</v>
+        <v>0.02558652722542044</v>
       </c>
       <c r="C24">
-        <v>-0.006864477115377096</v>
+        <v>-0.04663646918704155</v>
       </c>
       <c r="D24">
-        <v>0.04601446786508044</v>
+        <v>-0.0068536804049818</v>
       </c>
       <c r="E24">
-        <v>-0.007927124288121836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0004515787516082237</v>
+      </c>
+      <c r="F24">
+        <v>0.01566735702756151</v>
+      </c>
+      <c r="G24">
+        <v>0.02685116964305394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01108519853656031</v>
+        <v>0.04204963532488905</v>
       </c>
       <c r="C25">
-        <v>-0.02268006274412575</v>
+        <v>-0.05404993528539412</v>
       </c>
       <c r="D25">
-        <v>0.04450307900315278</v>
+        <v>-0.01071357906079054</v>
       </c>
       <c r="E25">
-        <v>-0.006904082930970889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007565440264670051</v>
+      </c>
+      <c r="F25">
+        <v>0.009216037846075092</v>
+      </c>
+      <c r="G25">
+        <v>0.0323153729032126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02257530208915283</v>
+        <v>0.01071431699938549</v>
       </c>
       <c r="C26">
-        <v>-0.007876534185175163</v>
+        <v>-0.009306220771225547</v>
       </c>
       <c r="D26">
-        <v>-0.004097033075812224</v>
+        <v>-0.0238023817187667</v>
       </c>
       <c r="E26">
-        <v>0.008204771861717209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005981452099197488</v>
+      </c>
+      <c r="F26">
+        <v>0.002961843099933999</v>
+      </c>
+      <c r="G26">
+        <v>0.03201731800815259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02805734645976127</v>
+        <v>0.1192408108139343</v>
       </c>
       <c r="C28">
-        <v>-0.2250800200981785</v>
+        <v>0.2232136330670794</v>
       </c>
       <c r="D28">
-        <v>-0.1809857831229962</v>
+        <v>0.009262049630434359</v>
       </c>
       <c r="E28">
-        <v>0.03301368558356059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002847635472668757</v>
+      </c>
+      <c r="F28">
+        <v>-0.01103533294409084</v>
+      </c>
+      <c r="G28">
+        <v>0.05985652848109344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007296131923131331</v>
+        <v>0.01357516019738364</v>
       </c>
       <c r="C29">
-        <v>-0.01717855251742632</v>
+        <v>-0.0216492787079829</v>
       </c>
       <c r="D29">
-        <v>0.01531393611228732</v>
+        <v>-0.00743389878357162</v>
       </c>
       <c r="E29">
-        <v>0.004933119927956765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008583892744071857</v>
+      </c>
+      <c r="F29">
+        <v>-0.009942825911516504</v>
+      </c>
+      <c r="G29">
+        <v>0.03059278112495196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.022991049933969</v>
+        <v>0.04449135501106527</v>
       </c>
       <c r="C30">
-        <v>-0.001119982550025105</v>
+        <v>-0.06888754887791063</v>
       </c>
       <c r="D30">
-        <v>0.06355349227126009</v>
+        <v>-0.02728332253754619</v>
       </c>
       <c r="E30">
-        <v>-0.06259129463515978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0316623740564746</v>
+      </c>
+      <c r="F30">
+        <v>0.04740085908232621</v>
+      </c>
+      <c r="G30">
+        <v>0.008337422828781317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007093142855973233</v>
+        <v>0.04518380221274884</v>
       </c>
       <c r="C31">
-        <v>-0.04694799055031881</v>
+        <v>-0.03218081896403766</v>
       </c>
       <c r="D31">
-        <v>0.04142940967252139</v>
+        <v>-0.003225822099494006</v>
       </c>
       <c r="E31">
-        <v>0.002532176324514378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006649036497874248</v>
+      </c>
+      <c r="F31">
+        <v>-0.03792242709946315</v>
+      </c>
+      <c r="G31">
+        <v>0.02734676441208082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007269588643200467</v>
+        <v>0.0022941663172874</v>
       </c>
       <c r="C32">
-        <v>-0.01424902264131509</v>
+        <v>-0.03623015738692947</v>
       </c>
       <c r="D32">
-        <v>0.006468944822575358</v>
+        <v>0.004134114066785281</v>
       </c>
       <c r="E32">
-        <v>0.02772855408807067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006570962643195574</v>
+      </c>
+      <c r="F32">
+        <v>0.05440599840162349</v>
+      </c>
+      <c r="G32">
+        <v>0.05711714548476816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01212452138047017</v>
+        <v>0.02570322904401491</v>
       </c>
       <c r="C33">
-        <v>-0.02443378540725583</v>
+        <v>-0.04969706274219268</v>
       </c>
       <c r="D33">
-        <v>0.02175806897887203</v>
+        <v>-0.01451972646451283</v>
       </c>
       <c r="E33">
-        <v>-0.02533367694080611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01986002239090753</v>
+      </c>
+      <c r="F33">
+        <v>0.0262711851035238</v>
+      </c>
+      <c r="G33">
+        <v>0.03558439969373933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004886418124873727</v>
+        <v>0.04343621181559929</v>
       </c>
       <c r="C34">
-        <v>-0.01951451603548839</v>
+        <v>-0.05467958826767055</v>
       </c>
       <c r="D34">
-        <v>0.05071547167175713</v>
+        <v>0.005277281018476361</v>
       </c>
       <c r="E34">
-        <v>0.0004511288442341829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01084099375503959</v>
+      </c>
+      <c r="F34">
+        <v>0.01908077793125161</v>
+      </c>
+      <c r="G34">
+        <v>0.03804376583329548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01175186765388962</v>
+        <v>0.01112837293311746</v>
       </c>
       <c r="C36">
-        <v>-0.01765338340520494</v>
+        <v>-0.007592134265945587</v>
       </c>
       <c r="D36">
-        <v>0.002068633323048284</v>
+        <v>-0.01148958684345657</v>
       </c>
       <c r="E36">
-        <v>0.00205311074621246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001513136813458132</v>
+      </c>
+      <c r="F36">
+        <v>-0.002522312919274652</v>
+      </c>
+      <c r="G36">
+        <v>0.02511927722237533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006397582423093358</v>
+        <v>0.03146162323018407</v>
       </c>
       <c r="C38">
-        <v>-0.02595580053744913</v>
+        <v>-0.02624878887277527</v>
       </c>
       <c r="D38">
-        <v>0.02234275631698502</v>
+        <v>0.007760381965762023</v>
       </c>
       <c r="E38">
-        <v>0.001269233709921436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003938884059071017</v>
+      </c>
+      <c r="F38">
+        <v>-0.005247378939802264</v>
+      </c>
+      <c r="G38">
+        <v>0.03329889837038269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005912728014449699</v>
+        <v>0.03117373225345757</v>
       </c>
       <c r="C39">
-        <v>0.01834672503874192</v>
+        <v>-0.08099396938259766</v>
       </c>
       <c r="D39">
-        <v>0.0950152751663788</v>
+        <v>-0.01214888270014353</v>
       </c>
       <c r="E39">
-        <v>-0.01726918141867811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02008825965690313</v>
+      </c>
+      <c r="F39">
+        <v>0.03898436644412744</v>
+      </c>
+      <c r="G39">
+        <v>0.02857216745641867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01031007036505637</v>
+        <v>0.02087983878439436</v>
       </c>
       <c r="C40">
-        <v>-0.01585453514762864</v>
+        <v>-0.03166286133491663</v>
       </c>
       <c r="D40">
-        <v>0.03856983511663992</v>
+        <v>-0.01294037757911031</v>
       </c>
       <c r="E40">
-        <v>-0.01051109302243123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01781386575725097</v>
+      </c>
+      <c r="F40">
+        <v>0.01902793127091354</v>
+      </c>
+      <c r="G40">
+        <v>0.02575435701143407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.00509466705296714</v>
+        <v>0.01284064507227973</v>
       </c>
       <c r="C41">
-        <v>-0.02045719706125861</v>
+        <v>0.0011771483867377</v>
       </c>
       <c r="D41">
-        <v>-0.007473774145418749</v>
+        <v>-0.003502692781296181</v>
       </c>
       <c r="E41">
-        <v>0.003425399074475823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001970600842533112</v>
+      </c>
+      <c r="F41">
+        <v>-0.002195886520027003</v>
+      </c>
+      <c r="G41">
+        <v>0.01724955486601924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09373795798535463</v>
+        <v>0.01858488099328792</v>
       </c>
       <c r="C42">
-        <v>-0.02537272170739409</v>
+        <v>-0.04555921682899344</v>
       </c>
       <c r="D42">
-        <v>0.2265579120828476</v>
+        <v>-0.09589022588901998</v>
       </c>
       <c r="E42">
-        <v>-0.294067333706563</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04215220448315087</v>
+      </c>
+      <c r="F42">
+        <v>-0.04450204533405555</v>
+      </c>
+      <c r="G42">
+        <v>-0.171313039914786</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005979163842901601</v>
+        <v>0.0283194040494511</v>
       </c>
       <c r="C43">
-        <v>-0.01978135016021241</v>
+        <v>-0.008778262095237459</v>
       </c>
       <c r="D43">
-        <v>-0.0125738679039375</v>
+        <v>-0.003882578368111131</v>
       </c>
       <c r="E43">
-        <v>-0.0004206317649483815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004444415772590546</v>
+      </c>
+      <c r="F43">
+        <v>-0.003760466024258221</v>
+      </c>
+      <c r="G43">
+        <v>0.02318556586205698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002834667245322462</v>
+        <v>0.01705351436583476</v>
       </c>
       <c r="C44">
-        <v>0.002005183899093696</v>
+        <v>-0.04876528691467435</v>
       </c>
       <c r="D44">
-        <v>0.02994276385929105</v>
+        <v>-0.006169264357649001</v>
       </c>
       <c r="E44">
-        <v>0.000673949391049191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01633684614738389</v>
+      </c>
+      <c r="F44">
+        <v>0.00942449779302041</v>
+      </c>
+      <c r="G44">
+        <v>0.03919472605892353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01056232685684292</v>
+        <v>0.006549528305947779</v>
       </c>
       <c r="C46">
-        <v>-0.01640570267480716</v>
+        <v>-0.01768165867142997</v>
       </c>
       <c r="D46">
-        <v>0.01892713306527322</v>
+        <v>-0.0117035671442904</v>
       </c>
       <c r="E46">
-        <v>-0.003892981533303993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001127198172811076</v>
+      </c>
+      <c r="F46">
+        <v>-0.01416254120646035</v>
+      </c>
+      <c r="G46">
+        <v>0.02723052881140322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001153844941917007</v>
+        <v>0.07361331977733997</v>
       </c>
       <c r="C47">
-        <v>-0.06087573789595158</v>
+        <v>-0.06598832532914131</v>
       </c>
       <c r="D47">
-        <v>0.04956944963026511</v>
+        <v>0.005075572533572516</v>
       </c>
       <c r="E47">
-        <v>-0.007183608551232823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009421193371878056</v>
+      </c>
+      <c r="F47">
+        <v>-0.05813302889970513</v>
+      </c>
+      <c r="G47">
+        <v>0.024642698877422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002598691457727002</v>
+        <v>0.02187817618074832</v>
       </c>
       <c r="C48">
-        <v>-0.02768239613196811</v>
+        <v>-0.009477357579660511</v>
       </c>
       <c r="D48">
-        <v>0.01188232487671665</v>
+        <v>-0.0007506391911056715</v>
       </c>
       <c r="E48">
-        <v>-0.0005349187191400206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00195880377863502</v>
+      </c>
+      <c r="F48">
+        <v>-0.0137242428825361</v>
+      </c>
+      <c r="G48">
+        <v>0.03031563965739299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002279920833433792</v>
+        <v>0.07852504996680466</v>
       </c>
       <c r="C50">
-        <v>-0.04968350176711089</v>
+        <v>-0.06779490484293033</v>
       </c>
       <c r="D50">
-        <v>0.06375605338253232</v>
+        <v>0.003591572655774096</v>
       </c>
       <c r="E50">
-        <v>0.01761446688399274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01067826177857955</v>
+      </c>
+      <c r="F50">
+        <v>-0.05673944900432679</v>
+      </c>
+      <c r="G50">
+        <v>0.04762017975766536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00699176250663308</v>
+        <v>0.01142829267597158</v>
       </c>
       <c r="C51">
-        <v>-0.02037592825137368</v>
+        <v>-0.02715828939072486</v>
       </c>
       <c r="D51">
-        <v>-0.01262693802136898</v>
+        <v>-0.009035284637720813</v>
       </c>
       <c r="E51">
-        <v>0.009907813594607691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006938163151042465</v>
+      </c>
+      <c r="F51">
+        <v>0.02574926938895678</v>
+      </c>
+      <c r="G51">
+        <v>0.05443254050251396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003773118227967466</v>
+        <v>0.09125505111530699</v>
       </c>
       <c r="C53">
-        <v>-0.07834356630417638</v>
+        <v>-0.08255091345514255</v>
       </c>
       <c r="D53">
-        <v>0.1064481188749661</v>
+        <v>0.005111681262686079</v>
       </c>
       <c r="E53">
-        <v>-0.005655400473298073</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03874674528244894</v>
+      </c>
+      <c r="F53">
+        <v>-0.06680060974080666</v>
+      </c>
+      <c r="G53">
+        <v>0.02552840073775215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001199127715542812</v>
+        <v>0.02915462062540572</v>
       </c>
       <c r="C54">
-        <v>-0.03490246515219914</v>
+        <v>-0.009026575518850768</v>
       </c>
       <c r="D54">
-        <v>-0.01066516136184624</v>
+        <v>0.003033460187282916</v>
       </c>
       <c r="E54">
-        <v>0.01220981711563083</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003105149399316969</v>
+      </c>
+      <c r="F54">
+        <v>-0.001294317877928338</v>
+      </c>
+      <c r="G54">
+        <v>0.0361323896885997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001327578297933605</v>
+        <v>0.07151353436858346</v>
       </c>
       <c r="C55">
-        <v>-0.05638379464161961</v>
+        <v>-0.07482799557356842</v>
       </c>
       <c r="D55">
-        <v>0.08981824335535749</v>
+        <v>0.004528883430102893</v>
       </c>
       <c r="E55">
-        <v>-0.01592212656557596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02576189893133128</v>
+      </c>
+      <c r="F55">
+        <v>-0.06022847355150569</v>
+      </c>
+      <c r="G55">
+        <v>0.0105417657135906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0004433787020960029</v>
+        <v>0.1411657530556863</v>
       </c>
       <c r="C56">
-        <v>-0.0991221532362451</v>
+        <v>-0.1063752493201525</v>
       </c>
       <c r="D56">
-        <v>0.1346576857056247</v>
+        <v>0.01349388637318507</v>
       </c>
       <c r="E56">
-        <v>-0.01762601015605973</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03595918942757858</v>
+      </c>
+      <c r="F56">
+        <v>-0.09872705430107495</v>
+      </c>
+      <c r="G56">
+        <v>-0.001473627759224317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02271905934571938</v>
+        <v>0.01083708250785264</v>
       </c>
       <c r="C57">
-        <v>-0.01825940332954367</v>
+        <v>-0.01059980697596694</v>
       </c>
       <c r="D57">
-        <v>0.03818942235061877</v>
+        <v>-0.02354280169895269</v>
       </c>
       <c r="E57">
-        <v>-0.01241439767641874</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02621189187050941</v>
+      </c>
+      <c r="F57">
+        <v>0.01792130198635905</v>
+      </c>
+      <c r="G57">
+        <v>0.02026454836862135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009464284408471945</v>
+        <v>0.082362119007326</v>
       </c>
       <c r="C58">
-        <v>-0.08975319123518034</v>
+        <v>-0.05698315605250116</v>
       </c>
       <c r="D58">
-        <v>0.09970450305690655</v>
+        <v>-0.01576260374875312</v>
       </c>
       <c r="E58">
-        <v>-0.2157132224402111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9597192784197988</v>
+      </c>
+      <c r="F58">
+        <v>-0.1551345845492974</v>
+      </c>
+      <c r="G58">
+        <v>0.007441216718864839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02416935606991611</v>
+        <v>0.1567460601376702</v>
       </c>
       <c r="C59">
-        <v>-0.2324752859149031</v>
+        <v>0.2079933506517816</v>
       </c>
       <c r="D59">
-        <v>-0.1804840634618878</v>
+        <v>0.01591164544138289</v>
       </c>
       <c r="E59">
-        <v>0.008160864903336599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01355984916882642</v>
+      </c>
+      <c r="F59">
+        <v>0.009889263629005553</v>
+      </c>
+      <c r="G59">
+        <v>0.02182498180770761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03002225188172353</v>
+        <v>0.2867878898000814</v>
       </c>
       <c r="C60">
-        <v>-0.1580169494018766</v>
+        <v>-0.09701730067249571</v>
       </c>
       <c r="D60">
-        <v>0.0821627454051172</v>
+        <v>-0.009628454882132778</v>
       </c>
       <c r="E60">
-        <v>-0.05274032320588138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02802158941110166</v>
+      </c>
+      <c r="F60">
+        <v>0.3736650314307988</v>
+      </c>
+      <c r="G60">
+        <v>-0.08153251185239871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002764604251389154</v>
+        <v>0.03211733446797476</v>
       </c>
       <c r="C61">
-        <v>-0.007341592514936625</v>
+        <v>-0.06493796609373523</v>
       </c>
       <c r="D61">
-        <v>0.06744732719006433</v>
+        <v>-0.005408966930027122</v>
       </c>
       <c r="E61">
-        <v>-0.01045805832757575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.00818312327684575</v>
+      </c>
+      <c r="F61">
+        <v>0.0207857500597864</v>
+      </c>
+      <c r="G61">
+        <v>0.02669575027921074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007225393169220441</v>
+        <v>0.01128124066812425</v>
       </c>
       <c r="C63">
-        <v>-0.00743592298437708</v>
+        <v>-0.02885226095091407</v>
       </c>
       <c r="D63">
-        <v>0.008915981607338502</v>
+        <v>-0.008192068482481869</v>
       </c>
       <c r="E63">
-        <v>0.007301516072621492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006849414519548683</v>
+      </c>
+      <c r="F63">
+        <v>-0.01853606965015861</v>
+      </c>
+      <c r="G63">
+        <v>0.03632485230515557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006689936948037256</v>
+        <v>0.049304571517614</v>
       </c>
       <c r="C64">
-        <v>-0.03101343279206449</v>
+        <v>-0.03947215193968855</v>
       </c>
       <c r="D64">
-        <v>0.06653571918614895</v>
+        <v>-0.00506880163858844</v>
       </c>
       <c r="E64">
-        <v>-0.01333121207472377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.007047276366736859</v>
+      </c>
+      <c r="F64">
+        <v>0.003342557351074422</v>
+      </c>
+      <c r="G64">
+        <v>0.0241341756879963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01750592440801415</v>
+        <v>0.08274106358124012</v>
       </c>
       <c r="C65">
-        <v>-0.0268623271139608</v>
+        <v>-0.06544006440895003</v>
       </c>
       <c r="D65">
-        <v>0.09533410587324932</v>
+        <v>-0.01507615100271635</v>
       </c>
       <c r="E65">
-        <v>-0.005876570272420225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01043234265254553</v>
+      </c>
+      <c r="F65">
+        <v>0.02816647331728555</v>
+      </c>
+      <c r="G65">
+        <v>0.01330768327524541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005282459546881693</v>
+        <v>0.05202725764559263</v>
       </c>
       <c r="C66">
-        <v>0.007970447277471329</v>
+        <v>-0.1147582053800248</v>
       </c>
       <c r="D66">
-        <v>0.117796562500039</v>
+        <v>-0.01156739996892057</v>
       </c>
       <c r="E66">
-        <v>-0.03358562300415645</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02104665588009013</v>
+      </c>
+      <c r="F66">
+        <v>0.04588521532885361</v>
+      </c>
+      <c r="G66">
+        <v>0.02056747863916818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001427658394062183</v>
+        <v>0.05435480372649656</v>
       </c>
       <c r="C67">
-        <v>-0.04360864495269399</v>
+        <v>-0.03146135617675977</v>
       </c>
       <c r="D67">
-        <v>0.02697211941847225</v>
+        <v>0.006059580229609322</v>
       </c>
       <c r="E67">
-        <v>-0.0008138195894146965</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004142819537962427</v>
+      </c>
+      <c r="F67">
+        <v>-0.006642896250624304</v>
+      </c>
+      <c r="G67">
+        <v>0.03085302124633698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04167221082827695</v>
+        <v>0.140399458159724</v>
       </c>
       <c r="C68">
-        <v>-0.2026735973617207</v>
+        <v>0.2660417684972139</v>
       </c>
       <c r="D68">
-        <v>-0.1748500176316289</v>
+        <v>-0.001934609161822116</v>
       </c>
       <c r="E68">
-        <v>0.005263004795196354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01415266703426057</v>
+      </c>
+      <c r="F68">
+        <v>-0.03623152024824437</v>
+      </c>
+      <c r="G68">
+        <v>0.02222039310960497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003275899925082979</v>
+        <v>0.07719863964468067</v>
       </c>
       <c r="C69">
-        <v>-0.04511832803811228</v>
+        <v>-0.06687854698858123</v>
       </c>
       <c r="D69">
-        <v>0.05815346852768835</v>
+        <v>0.009014399612763178</v>
       </c>
       <c r="E69">
-        <v>-0.003481618068266469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02878658370478288</v>
+      </c>
+      <c r="F69">
+        <v>-0.04518455419271306</v>
+      </c>
+      <c r="G69">
+        <v>0.02596846163200835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02936038500044732</v>
+        <v>0.137677760569979</v>
       </c>
       <c r="C71">
-        <v>-0.180910272181456</v>
+        <v>0.2280827089162003</v>
       </c>
       <c r="D71">
-        <v>-0.1568734600422954</v>
+        <v>0.007183007943145278</v>
       </c>
       <c r="E71">
-        <v>0.01720419091977788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02504365271837287</v>
+      </c>
+      <c r="F71">
+        <v>-0.01018854428624807</v>
+      </c>
+      <c r="G71">
+        <v>0.03233701349192886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003216661740219733</v>
+        <v>0.08103653076974801</v>
       </c>
       <c r="C72">
-        <v>-0.04351932881034474</v>
+        <v>-0.07432249186744684</v>
       </c>
       <c r="D72">
-        <v>0.1399180081563406</v>
+        <v>0.008729506748188343</v>
       </c>
       <c r="E72">
-        <v>-0.03664148873240058</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01490799399042151</v>
+      </c>
+      <c r="F72">
+        <v>0.03625730930393585</v>
+      </c>
+      <c r="G72">
+        <v>0.008259142038640054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04391428342747748</v>
+        <v>0.3942603948198612</v>
       </c>
       <c r="C73">
-        <v>-0.1935921715827862</v>
+        <v>-0.1082458299572815</v>
       </c>
       <c r="D73">
-        <v>0.146170125392538</v>
+        <v>-0.01457608085293979</v>
       </c>
       <c r="E73">
-        <v>-0.1177740599421031</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.01729985280366729</v>
+      </c>
+      <c r="F73">
+        <v>0.5500603621339676</v>
+      </c>
+      <c r="G73">
+        <v>-0.1334203674729363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001341393073693915</v>
+        <v>0.115864141319869</v>
       </c>
       <c r="C74">
-        <v>-0.09070842035263692</v>
+        <v>-0.1205728100688371</v>
       </c>
       <c r="D74">
-        <v>0.1365435509580523</v>
+        <v>0.0102768740497806</v>
       </c>
       <c r="E74">
-        <v>-0.02498746276673188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02072766885045568</v>
+      </c>
+      <c r="F74">
+        <v>-0.08552751569254946</v>
+      </c>
+      <c r="G74">
+        <v>0.03095066609517077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001027008123031129</v>
+        <v>0.2573886035232346</v>
       </c>
       <c r="C75">
-        <v>-0.2200011514557509</v>
+        <v>-0.1572457265151002</v>
       </c>
       <c r="D75">
-        <v>0.2335198276055732</v>
+        <v>0.03130181613822198</v>
       </c>
       <c r="E75">
-        <v>-0.05296134350026651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05485532528660193</v>
+      </c>
+      <c r="F75">
+        <v>-0.2125762983986447</v>
+      </c>
+      <c r="G75">
+        <v>-0.04548119306555912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005300340563695436</v>
+        <v>0.1334018091797064</v>
       </c>
       <c r="C76">
-        <v>-0.1571900247481836</v>
+        <v>-0.1273563528910673</v>
       </c>
       <c r="D76">
-        <v>0.2165196325708182</v>
+        <v>0.02136625913809899</v>
       </c>
       <c r="E76">
-        <v>-0.0159472073066159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05196315725828102</v>
+      </c>
+      <c r="F76">
+        <v>-0.1436933319701769</v>
+      </c>
+      <c r="G76">
+        <v>0.01133204993026955</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01173280133720763</v>
+        <v>0.0619891142683124</v>
       </c>
       <c r="C77">
-        <v>-0.01334484797745472</v>
+        <v>-0.06566188847081825</v>
       </c>
       <c r="D77">
-        <v>0.06651250527695148</v>
+        <v>-0.01295522434855798</v>
       </c>
       <c r="E77">
-        <v>-0.01051700831908106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04560933142218149</v>
+      </c>
+      <c r="F77">
+        <v>0.01957433827609148</v>
+      </c>
+      <c r="G77">
+        <v>0.05320897791629031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004134103322170972</v>
+        <v>0.03980291713167465</v>
       </c>
       <c r="C78">
-        <v>-0.01380935041916284</v>
+        <v>-0.05132345303069365</v>
       </c>
       <c r="D78">
-        <v>0.06583601683556443</v>
+        <v>-0.005828626346225275</v>
       </c>
       <c r="E78">
-        <v>-0.007960478350680363</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01915212658942029</v>
+      </c>
+      <c r="F78">
+        <v>0.04426419044890473</v>
+      </c>
+      <c r="G78">
+        <v>0.03634458296880422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01438325581896334</v>
+        <v>0.05703122395912194</v>
       </c>
       <c r="C80">
-        <v>-0.1451461545024761</v>
+        <v>-0.06780469253191461</v>
       </c>
       <c r="D80">
-        <v>0.2534866657927706</v>
+        <v>-0.01266969139473311</v>
       </c>
       <c r="E80">
-        <v>0.8907577785622679</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04274147494553646</v>
+      </c>
+      <c r="F80">
+        <v>0.03906458504595368</v>
+      </c>
+      <c r="G80">
+        <v>0.9109127156006134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001666373044391908</v>
+        <v>0.1449936826883502</v>
       </c>
       <c r="C81">
-        <v>-0.1393550531823168</v>
+        <v>-0.09651670433215077</v>
       </c>
       <c r="D81">
-        <v>0.1537974790713554</v>
+        <v>0.01595647184764175</v>
       </c>
       <c r="E81">
-        <v>-0.02583167022107325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03031900872353172</v>
+      </c>
+      <c r="F81">
+        <v>-0.1372971374789992</v>
+      </c>
+      <c r="G81">
+        <v>0.01044971264758386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0531829772086657</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03977350430821484</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002759060990810212</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02118047404187887</v>
+      </c>
+      <c r="F82">
+        <v>-0.009902297985089181</v>
+      </c>
+      <c r="G82">
+        <v>-0.006207443988285231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006548292302207209</v>
+        <v>0.02827090613136261</v>
       </c>
       <c r="C83">
-        <v>-0.02979321857599956</v>
+        <v>-0.02104426435456855</v>
       </c>
       <c r="D83">
-        <v>0.02346959357468072</v>
+        <v>-0.005045802188477149</v>
       </c>
       <c r="E83">
-        <v>-0.008277204188776949</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02373015633353115</v>
+      </c>
+      <c r="F83">
+        <v>0.01913421152448455</v>
+      </c>
+      <c r="G83">
+        <v>0.02287768096551401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009054075285226925</v>
+        <v>0.2312418496822767</v>
       </c>
       <c r="C85">
-        <v>-0.1699188557443448</v>
+        <v>-0.1549407729191167</v>
       </c>
       <c r="D85">
-        <v>0.2455214359361149</v>
+        <v>0.01945116361442944</v>
       </c>
       <c r="E85">
-        <v>-0.05739137962425972</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1033761977503</v>
+      </c>
+      <c r="F85">
+        <v>-0.1885923806382369</v>
+      </c>
+      <c r="G85">
+        <v>-0.06513332280339811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006376712925437037</v>
+        <v>0.01181376371286996</v>
       </c>
       <c r="C86">
-        <v>-0.02261305988573676</v>
+        <v>-0.01523642980698471</v>
       </c>
       <c r="D86">
-        <v>0.006413378539491972</v>
+        <v>-0.009615824638806407</v>
       </c>
       <c r="E86">
-        <v>-0.02079637953274237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02718996794489959</v>
+      </c>
+      <c r="F86">
+        <v>0.03730675238469192</v>
+      </c>
+      <c r="G86">
+        <v>0.05290302966623953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007217427227272452</v>
+        <v>0.0205448854372671</v>
       </c>
       <c r="C87">
-        <v>-0.01118750935335717</v>
+        <v>-0.02632879231224144</v>
       </c>
       <c r="D87">
-        <v>0.0397041822391143</v>
+        <v>-0.01076874596534629</v>
       </c>
       <c r="E87">
-        <v>-0.009197082579458837</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08434421063490664</v>
+      </c>
+      <c r="F87">
+        <v>0.03524962773868809</v>
+      </c>
+      <c r="G87">
+        <v>0.04669491113231845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02654193152512041</v>
+        <v>0.09026193552339443</v>
       </c>
       <c r="C88">
-        <v>-0.04716691024147059</v>
+        <v>-0.06266213400958905</v>
       </c>
       <c r="D88">
-        <v>0.03018923569581575</v>
+        <v>-0.02192135823150319</v>
       </c>
       <c r="E88">
-        <v>-0.008524116850328282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01432207549464888</v>
+      </c>
+      <c r="F88">
+        <v>-0.01276005021255246</v>
+      </c>
+      <c r="G88">
+        <v>0.02294508391742491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05693954637626989</v>
+        <v>0.2314967821190067</v>
       </c>
       <c r="C89">
-        <v>-0.3515800951935363</v>
+        <v>0.3649419434607522</v>
       </c>
       <c r="D89">
-        <v>-0.26917228345291</v>
+        <v>0.007638978199092798</v>
       </c>
       <c r="E89">
-        <v>0.005620043891999861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01727060777241221</v>
+      </c>
+      <c r="F89">
+        <v>-0.03283460792495503</v>
+      </c>
+      <c r="G89">
+        <v>0.03195348159721733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04244866195562491</v>
+        <v>0.198451789260623</v>
       </c>
       <c r="C90">
-        <v>-0.2585754930198128</v>
+        <v>0.3312563906123372</v>
       </c>
       <c r="D90">
-        <v>-0.250326525126423</v>
+        <v>0.0108474773832105</v>
       </c>
       <c r="E90">
-        <v>0.002882316312886442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006106826430640777</v>
+      </c>
+      <c r="F90">
+        <v>-0.05078784917284211</v>
+      </c>
+      <c r="G90">
+        <v>0.0009196018444204042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001691300913042973</v>
+        <v>0.2033800904770465</v>
       </c>
       <c r="C91">
-        <v>-0.18051001002413</v>
+        <v>-0.1426403139778051</v>
       </c>
       <c r="D91">
-        <v>0.2237521871784752</v>
+        <v>0.02500262448377185</v>
       </c>
       <c r="E91">
-        <v>-0.03711765288496115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0732929029464366</v>
+      </c>
+      <c r="F91">
+        <v>-0.1855375414334666</v>
+      </c>
+      <c r="G91">
+        <v>-0.003291063669216135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009085392315116248</v>
+        <v>0.2079220671821832</v>
       </c>
       <c r="C92">
-        <v>-0.3304878821546126</v>
+        <v>0.2563540210279968</v>
       </c>
       <c r="D92">
-        <v>-0.1229324585276365</v>
+        <v>0.04912364911549722</v>
       </c>
       <c r="E92">
-        <v>-0.002964928099152031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.002831170559362869</v>
+      </c>
+      <c r="F92">
+        <v>-0.1151745508253976</v>
+      </c>
+      <c r="G92">
+        <v>0.06375676152257781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03969391087968056</v>
+        <v>0.2263811958618992</v>
       </c>
       <c r="C93">
-        <v>-0.2961422331197761</v>
+        <v>0.3327112986276721</v>
       </c>
       <c r="D93">
-        <v>-0.2516927216271423</v>
+        <v>0.01848300033904221</v>
       </c>
       <c r="E93">
-        <v>-0.02024805626511175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.007016671255688224</v>
+      </c>
+      <c r="F93">
+        <v>-0.03129413495562828</v>
+      </c>
+      <c r="G93">
+        <v>-0.001209788453742995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01955590679010099</v>
+        <v>0.2829450977886669</v>
       </c>
       <c r="C94">
-        <v>-0.2249661736736828</v>
+        <v>-0.1724843663605778</v>
       </c>
       <c r="D94">
-        <v>0.2150975710487906</v>
+        <v>0.01337693883842917</v>
       </c>
       <c r="E94">
-        <v>-0.0825088242643074</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.08678277598869474</v>
+      </c>
+      <c r="F94">
+        <v>-0.4233871994265512</v>
+      </c>
+      <c r="G94">
+        <v>-0.1351927666753825</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00634629033253165</v>
+        <v>0.08790558564145384</v>
       </c>
       <c r="C95">
-        <v>-0.04768539506087687</v>
+        <v>-0.07836216008972303</v>
       </c>
       <c r="D95">
-        <v>0.07483802133686607</v>
+        <v>0.007669410181940631</v>
       </c>
       <c r="E95">
-        <v>-0.1220743784963921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06215156747926139</v>
+      </c>
+      <c r="F95">
+        <v>0.1984322831036197</v>
+      </c>
+      <c r="G95">
+        <v>-0.06589416108738302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004659882048088417</v>
+        <v>0.2061008981181164</v>
       </c>
       <c r="C98">
-        <v>-0.1632058489934917</v>
+        <v>-0.04725695871479965</v>
       </c>
       <c r="D98">
-        <v>0.1067824594010529</v>
+        <v>0.01629849282661645</v>
       </c>
       <c r="E98">
-        <v>-0.07308518010888901</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04257956810600369</v>
+      </c>
+      <c r="F98">
+        <v>0.2597491428087724</v>
+      </c>
+      <c r="G98">
+        <v>-0.03078197219271772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007137235030974388</v>
+        <v>0.01343095808359562</v>
       </c>
       <c r="C101">
-        <v>-0.01777403676226983</v>
+        <v>-0.02175187988259124</v>
       </c>
       <c r="D101">
-        <v>0.01589202192206636</v>
+        <v>-0.007223176670895402</v>
       </c>
       <c r="E101">
-        <v>0.005048261551467497</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008944515983605131</v>
+      </c>
+      <c r="F101">
+        <v>-0.01177837414377299</v>
+      </c>
+      <c r="G101">
+        <v>0.03058598093900864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01372955784355348</v>
+        <v>0.121664883827579</v>
       </c>
       <c r="C102">
-        <v>-0.107567474190329</v>
+        <v>-0.08507680123912989</v>
       </c>
       <c r="D102">
-        <v>0.1153861748971111</v>
+        <v>-0.0003364508351018409</v>
       </c>
       <c r="E102">
-        <v>-0.0272456867752158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03635824201662975</v>
+      </c>
+      <c r="F102">
+        <v>-0.05379712057780619</v>
+      </c>
+      <c r="G102">
+        <v>-0.009955944079455792</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001785060477384069</v>
+        <v>0.004553593267711873</v>
       </c>
       <c r="C103">
-        <v>-0.01682893820933292</v>
+        <v>-0.005350342509667494</v>
       </c>
       <c r="D103">
-        <v>0.02915737636516613</v>
+        <v>-0.0004138684491430906</v>
       </c>
       <c r="E103">
-        <v>0.01062290010066165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001929777638913168</v>
+      </c>
+      <c r="F103">
+        <v>-0.009344381638472463</v>
+      </c>
+      <c r="G103">
+        <v>0.01759719837111447</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9847293965594198</v>
+        <v>0.03482426539065923</v>
       </c>
       <c r="C104">
-        <v>0.1084447926061708</v>
+        <v>0.04054017904946856</v>
       </c>
       <c r="D104">
-        <v>0.002512415563387929</v>
+        <v>-0.9870851715724883</v>
       </c>
       <c r="E104">
-        <v>0.02676574206497563</v>
+        <v>0.03585046830392156</v>
+      </c>
+      <c r="F104">
+        <v>-0.04500938889842002</v>
+      </c>
+      <c r="G104">
+        <v>-0.008333843972212941</v>
       </c>
     </row>
   </sheetData>
